--- a/biology/Zoologie/Ichneumon_pteromajus/Ichneumon_pteromajus.xlsx
+++ b/biology/Zoologie/Ichneumon_pteromajus/Ichneumon_pteromajus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ichneumon pteromajus est une espèce fossile d'insectes guêpes entomophages hyménoptères de la famille des ichneumonidés dans le genre Ichneumon.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ichneumon pteromajus est décrite en 1937 par le paléontologue français Nicolas Théobald, dans sa thèse[1],[2]. 
-Fossiles
-L'holotype Bt28, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection personnelle de Nicolas Théobald[note 1] et vient de Brunstatt.
-Étymologie
-L'épithète spécifique signifie en latin « un oiseau plus gros ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ichneumon pteromajus est décrite en 1937 par le paléontologue français Nicolas Théobald, dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,19 +553,170 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype Bt28, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection personnelle de Nicolas Théobald[note 1] et vient de Brunstatt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ichneumon_pteromajus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ichneumon_pteromajus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique signifie en latin « un oiseau plus gros ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ichneumon_pteromajus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ichneumon_pteromajus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 2] : 
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
 « Insecte de couleur jaune-rouille, à ailes claires. Taille petite, allure gracieuse, ailes longues dépassant l'abdomen.
-Tête transversale ; deux gros yeux, arrondis, faisant saillie sur les côtés ; front arrondi à l'avant; vertex concave à l'arrière, porte trois ocelles. Cou long, thorax nettement séparé de la tête. Thorax allongé, un peu étiré vers l'arrière. Pétiole long. Abdomen en fuseau ; le premier segment est plus long que les quatre autres réunis, ces derniers sont de plus en plus courts et étroits. Pattes mal conservées, quelques fragments grêles des cuisses I et II. Ailes transparentes, nervation effacée. »[1].
-Dimensions
-La longueur totale est de 3,1 mm[1].
-Affinités
-« Faute de détails de structure, les affinités de cet Insecte dans le groupe des Ichneumonidae n'ont pu être précisées[1]. »
+Tête transversale ; deux gros yeux, arrondis, faisant saillie sur les côtés ; front arrondi à l'avant; vertex concave à l'arrière, porte trois ocelles. Cou long, thorax nettement séparé de la tête. Thorax allongé, un peu étiré vers l'arrière. Pétiole long. Abdomen en fuseau ; le premier segment est plus long que les quatre autres réunis, ces derniers sont de plus en plus courts et étroits. Pattes mal conservées, quelques fragments grêles des cuisses I et II. Ailes transparentes, nervation effacée. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ichneumon_pteromajus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ichneumon_pteromajus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 3,1 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ichneumon_pteromajus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ichneumon_pteromajus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Faute de détails de structure, les affinités de cet Insecte dans le groupe des Ichneumonidae n'ont pu être précisées. »
 </t>
         </is>
       </c>
